--- a/data/trans_dic/P28A_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28A_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más tabaco respecto al último mes</t>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,08; 66,71</t>
+          <t>3,24; 29,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 54,58</t>
+          <t>3,3; 28,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 40,53</t>
+          <t>0,0; 25,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 27,84</t>
+          <t>0,0; 23,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 36,93</t>
+          <t>0,0; 14,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 56,56</t>
+          <t>2,32; 20,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 31,25</t>
+          <t>0,0; 10,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 27,78</t>
+          <t>0,0; 13,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 44,3</t>
+          <t>2,83; 17,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,8; 48,46</t>
+          <t>5,48; 19,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,11; 30,88</t>
+          <t>1,05; 11,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 22,73</t>
+          <t>0,0; 9,68</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,94; 52,47</t>
+          <t>4,2; 25,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,6; 44,03</t>
+          <t>2,81; 21,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 33,12</t>
+          <t>1,23; 15,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,27</t>
+          <t>0,0; 11,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,1; 60,83</t>
+          <t>4,68; 20,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 27,66</t>
+          <t>1,7; 15,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,14; 36,68</t>
+          <t>4,78; 22,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,99; 50,04</t>
+          <t>6,08; 18,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 30,93</t>
+          <t>3,97; 14,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 29,4</t>
+          <t>3,9; 16,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 14,76</t>
+          <t>0,0; 5,51</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,46%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,02; 43,2</t>
+          <t>4,98; 22,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 37,02</t>
+          <t>1,63; 14,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 15,65</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 16,62</t>
+          <t>0,0; 9,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,53; 61,87</t>
+          <t>8,76; 24,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 38,95</t>
+          <t>1,99; 11,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 25,5</t>
+          <t>2,68; 11,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 24,09</t>
+          <t>0,0; 5,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,99; 50,94</t>
+          <t>9,03; 21,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,1; 31,28</t>
+          <t>3,01; 10,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 18,1</t>
+          <t>2,3; 9,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 16,51</t>
+          <t>0,56; 5,1</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>6,09%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,32; 56,03</t>
+          <t>3,74; 16,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 25,82</t>
+          <t>0,0; 8,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 22,86</t>
+          <t>0,0; 9,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 22,0</t>
+          <t>1,11; 10,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,81; 50,01</t>
+          <t>4,9; 17,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 32,96</t>
+          <t>2,79; 12,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 28,85</t>
+          <t>3,08; 13,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 39,37</t>
+          <t>3,91; 15,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,49; 47,63</t>
+          <t>5,49; 14,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 25,77</t>
+          <t>2,54; 8,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,69; 21,96</t>
+          <t>2,71; 9,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,36; 27,2</t>
+          <t>3,12; 9,94</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 28,42</t>
+          <t>1,34; 13,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 26,2</t>
+          <t>1,25; 10,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 34,05</t>
+          <t>0,0; 7,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,35; 40,39</t>
+          <t>1,83; 13,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,74; 38,27</t>
+          <t>1,79; 15,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 19,68</t>
+          <t>0,0; 12,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 23,08</t>
+          <t>0,0; 15,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,24; 27,95</t>
+          <t>2,42; 11,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 27,96</t>
+          <t>2,27; 10,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 23,23</t>
+          <t>0,71; 6,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 11,74</t>
+          <t>0,0; 6,04</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,42 +1377,42 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,62</t>
+          <t>0,0; 10,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,75</t>
+          <t>0,0; 10,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,46</t>
+          <t>0,0; 9,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,96; 51,79</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,32</t>
+          <t>0,0; 5,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,6</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,82; 38,4</t>
+          <t>5,85; 12,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,65; 25,27</t>
+          <t>3,2; 8,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,81; 17,84</t>
+          <t>1,76; 6,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,58</t>
+          <t>0,88; 4,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,3; 41,59</t>
+          <t>6,47; 12,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,89; 27,82</t>
+          <t>4,06; 9,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,82; 20,26</t>
+          <t>3,49; 8,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,84; 16,77</t>
+          <t>1,46; 4,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,23; 37,6</t>
+          <t>7,07; 11,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,56; 24,32</t>
+          <t>4,22; 7,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,31</t>
+          <t>3,14; 6,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,46</t>
+          <t>1,54; 4,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10969</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13595</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7574</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4797</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5625</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12586</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2425</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3073</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16595</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26181</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7871</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2791; 25032</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3535; 30576</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26747</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 30154</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17387</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3111; 27761</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13101</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16189</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5761; 35768</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13212; 48002</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2370; 26475</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24220</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16720</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15611</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3224</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13342</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11048</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14045</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30062</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26659</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22098</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3224</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5747; 34312</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4741; 36985</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1767; 21901</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17733</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6239; 27141</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2809; 26380</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6054; 28190</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16423; 49807</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13256; 47643</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10522; 43336</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15455</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16642</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8683</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>32943</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15002</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11798</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1903</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>49585</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23686</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16233</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6142</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6959; 31479</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2648; 22715</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15348</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13152</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18867; 53477</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5212; 30107</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5610; 24322</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10833</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32068; 74784</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12772; 43885</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7913; 31630</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1876; 17250</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14349</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4754</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5730</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18814</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14773</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13490</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14270</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>33163</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>19527</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17715</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6121; 26921</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16786</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14887</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1735; 16635</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9376; 33280</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6083; 28031</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5733; 25688</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6745; 26278</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19482; 50479</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10286; 35654</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9419; 32000</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10264; 32678</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7584</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6628</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5933</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7124</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2585</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13517</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13752</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5799</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2585</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1861; 19049</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1966; 16004</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10511</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1893; 14124</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2081; 18424</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11889</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14464</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5874; 26691</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6209; 28871</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1596; 15563</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13039</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2162</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2727</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1739</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2162</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2727</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1739</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10867</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13802</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10753</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10720</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13439</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9335</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>66265</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>49272</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>26253</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>17990</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>78819</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>63260</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>45592</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>23571</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>145084</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>112531</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>71845</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>41561</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>44205; 92350</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>28499; 74581</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>13454; 47639</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6956; 38075</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>56148; 107945</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>41955; 93178</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>29364; 67499</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>12023; 40065</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>114847; 184739</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>81114; 149692</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>50396; 99160</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24933; 66248</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>